--- a/0_1_Output_Data/5_ifoCAST_error_series_GVA_full_since_2022/ifoCAst_errors_full_first_since_2022_GVA.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_GVA_full_since_2022/ifoCAst_errors_full_first_since_2022_GVA.xlsx
@@ -1590,6 +1590,9 @@
       <c r="C88">
         <v>0.4412813462360053</v>
       </c>
+      <c r="D88">
+        <v>0.7254492243564907</v>
+      </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
@@ -1598,6 +1601,9 @@
       <c r="C89">
         <v>0.4689256712360053</v>
       </c>
+      <c r="D89">
+        <v>0.7215746373564907</v>
+      </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
@@ -1606,6 +1612,9 @@
       <c r="C90">
         <v>0.2280757452360053</v>
       </c>
+      <c r="D90">
+        <v>0.5311946523564907</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
@@ -1614,6 +1623,9 @@
       <c r="C91">
         <v>0.3139414512360053</v>
       </c>
+      <c r="D91">
+        <v>0.5539812373564907</v>
+      </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
@@ -1622,6 +1634,9 @@
       <c r="B92">
         <v>0.02261627023600529</v>
       </c>
+      <c r="C92">
+        <v>0.1753415943564907</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
@@ -1630,25 +1645,40 @@
       <c r="B93">
         <v>-0.0212972287639947</v>
       </c>
+      <c r="C93">
+        <v>0.2651053283564908</v>
+      </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="C94">
+        <v>0.08763596535649075</v>
+      </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="C95">
+        <v>0.1003532183564907</v>
+      </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="C96">
+        <v>-0.02418658464350926</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>98</v>
+      </c>
+      <c r="C97">
+        <v>0.2001520573564908</v>
       </c>
     </row>
   </sheetData>
